--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value69.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value69.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9146294474942722</v>
+        <v>1.168631076812744</v>
       </c>
       <c r="B1">
-        <v>1.731025958610079</v>
+        <v>1.625205516815186</v>
       </c>
       <c r="C1">
-        <v>1.924806455352888</v>
+        <v>1.286009907722473</v>
       </c>
       <c r="D1">
-        <v>2.28537605871254</v>
+        <v>1.886569857597351</v>
       </c>
       <c r="E1">
-        <v>2.411798609037959</v>
+        <v>3.143168449401855</v>
       </c>
     </row>
   </sheetData>
